--- a/tablas/sesion_05.xlsx
+++ b/tablas/sesion_05.xlsx
@@ -14,13 +14,141 @@
   <sheets>
     <sheet name="delitos_mensuales" sheetId="1" r:id="rId1"/>
     <sheet name="delitos_entidad_2021" sheetId="2" r:id="rId2"/>
+    <sheet name="Distribución_porcentual_delitos" sheetId="3" r:id="rId3"/>
+    <sheet name="Distribución_mensual_tipo" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.0" hidden="1">Distribución_mensual_tipo!$A$4:$A$15</definedName>
+    <definedName name="_xlchart.1" hidden="1">Distribución_mensual_tipo!$B$3</definedName>
+    <definedName name="_xlchart.10" hidden="1">Distribución_mensual_tipo!$F$4:$F$15</definedName>
+    <definedName name="_xlchart.100" hidden="1">Distribución_mensual_tipo!$E$3</definedName>
+    <definedName name="_xlchart.101" hidden="1">Distribución_mensual_tipo!$E$4:$E$15</definedName>
+    <definedName name="_xlchart.102" hidden="1">Distribución_mensual_tipo!$F$3</definedName>
+    <definedName name="_xlchart.103" hidden="1">Distribución_mensual_tipo!$F$4:$F$15</definedName>
+    <definedName name="_xlchart.104" hidden="1">Distribución_mensual_tipo!$G$3</definedName>
+    <definedName name="_xlchart.105" hidden="1">Distribución_mensual_tipo!$G$4:$G$15</definedName>
+    <definedName name="_xlchart.106" hidden="1">Distribución_mensual_tipo!$H$3</definedName>
+    <definedName name="_xlchart.107" hidden="1">Distribución_mensual_tipo!$H$4:$H$15</definedName>
+    <definedName name="_xlchart.108" hidden="1">Distribución_mensual_tipo!$I$3</definedName>
+    <definedName name="_xlchart.109" hidden="1">Distribución_mensual_tipo!$I$4:$I$15</definedName>
+    <definedName name="_xlchart.11" hidden="1">Distribución_mensual_tipo!$G$3</definedName>
+    <definedName name="_xlchart.110" hidden="1">Distribución_mensual_tipo!$J$3</definedName>
+    <definedName name="_xlchart.111" hidden="1">Distribución_mensual_tipo!$J$4:$J$15</definedName>
+    <definedName name="_xlchart.112" hidden="1">Distribución_mensual_tipo!$K$3</definedName>
+    <definedName name="_xlchart.113" hidden="1">Distribución_mensual_tipo!$K$4:$K$15</definedName>
+    <definedName name="_xlchart.114" hidden="1">Distribución_mensual_tipo!$L$3</definedName>
+    <definedName name="_xlchart.115" hidden="1">Distribución_mensual_tipo!$L$4:$L$15</definedName>
+    <definedName name="_xlchart.116" hidden="1">Distribución_mensual_tipo!$M$3</definedName>
+    <definedName name="_xlchart.117" hidden="1">Distribución_mensual_tipo!$M$4:$M$15</definedName>
+    <definedName name="_xlchart.118" hidden="1">Distribución_mensual_tipo!$N$3</definedName>
+    <definedName name="_xlchart.119" hidden="1">Distribución_mensual_tipo!$N$4:$N$15</definedName>
+    <definedName name="_xlchart.12" hidden="1">Distribución_mensual_tipo!$G$4:$G$15</definedName>
+    <definedName name="_xlchart.120" hidden="1">Distribución_mensual_tipo!$O$3</definedName>
+    <definedName name="_xlchart.121" hidden="1">Distribución_mensual_tipo!$O$4:$O$15</definedName>
+    <definedName name="_xlchart.122" hidden="1">Distribución_mensual_tipo!$P$3</definedName>
+    <definedName name="_xlchart.123" hidden="1">Distribución_mensual_tipo!$P$4:$P$15</definedName>
+    <definedName name="_xlchart.13" hidden="1">Distribución_mensual_tipo!$H$3</definedName>
+    <definedName name="_xlchart.14" hidden="1">Distribución_mensual_tipo!$H$4:$H$15</definedName>
+    <definedName name="_xlchart.15" hidden="1">Distribución_mensual_tipo!$I$3</definedName>
+    <definedName name="_xlchart.16" hidden="1">Distribución_mensual_tipo!$I$4:$I$15</definedName>
+    <definedName name="_xlchart.17" hidden="1">Distribución_mensual_tipo!$J$3</definedName>
+    <definedName name="_xlchart.18" hidden="1">Distribución_mensual_tipo!$J$4:$J$15</definedName>
+    <definedName name="_xlchart.19" hidden="1">Distribución_mensual_tipo!$K$3</definedName>
+    <definedName name="_xlchart.2" hidden="1">Distribución_mensual_tipo!$B$4:$B$15</definedName>
+    <definedName name="_xlchart.20" hidden="1">Distribución_mensual_tipo!$K$4:$K$15</definedName>
+    <definedName name="_xlchart.21" hidden="1">Distribución_mensual_tipo!$L$3</definedName>
+    <definedName name="_xlchart.22" hidden="1">Distribución_mensual_tipo!$L$4:$L$15</definedName>
+    <definedName name="_xlchart.23" hidden="1">Distribución_mensual_tipo!$M$3</definedName>
+    <definedName name="_xlchart.24" hidden="1">Distribución_mensual_tipo!$M$4:$M$15</definedName>
+    <definedName name="_xlchart.25" hidden="1">Distribución_mensual_tipo!$N$3</definedName>
+    <definedName name="_xlchart.26" hidden="1">Distribución_mensual_tipo!$N$4:$N$15</definedName>
+    <definedName name="_xlchart.27" hidden="1">Distribución_mensual_tipo!$O$3</definedName>
+    <definedName name="_xlchart.28" hidden="1">Distribución_mensual_tipo!$O$4:$O$15</definedName>
+    <definedName name="_xlchart.29" hidden="1">Distribución_mensual_tipo!$P$3</definedName>
+    <definedName name="_xlchart.3" hidden="1">Distribución_mensual_tipo!$C$3</definedName>
+    <definedName name="_xlchart.30" hidden="1">Distribución_mensual_tipo!$P$4:$P$15</definedName>
+    <definedName name="_xlchart.31" hidden="1">Distribución_mensual_tipo!$A$4:$A$15</definedName>
+    <definedName name="_xlchart.32" hidden="1">Distribución_mensual_tipo!$B$3</definedName>
+    <definedName name="_xlchart.33" hidden="1">Distribución_mensual_tipo!$B$4:$B$15</definedName>
+    <definedName name="_xlchart.34" hidden="1">Distribución_mensual_tipo!$C$3</definedName>
+    <definedName name="_xlchart.35" hidden="1">Distribución_mensual_tipo!$C$4:$C$15</definedName>
+    <definedName name="_xlchart.36" hidden="1">Distribución_mensual_tipo!$D$3</definedName>
+    <definedName name="_xlchart.37" hidden="1">Distribución_mensual_tipo!$D$4:$D$15</definedName>
+    <definedName name="_xlchart.38" hidden="1">Distribución_mensual_tipo!$E$3</definedName>
+    <definedName name="_xlchart.39" hidden="1">Distribución_mensual_tipo!$E$4:$E$15</definedName>
+    <definedName name="_xlchart.4" hidden="1">Distribución_mensual_tipo!$C$4:$C$15</definedName>
+    <definedName name="_xlchart.40" hidden="1">Distribución_mensual_tipo!$F$3</definedName>
+    <definedName name="_xlchart.41" hidden="1">Distribución_mensual_tipo!$F$4:$F$15</definedName>
+    <definedName name="_xlchart.42" hidden="1">Distribución_mensual_tipo!$G$3</definedName>
+    <definedName name="_xlchart.43" hidden="1">Distribución_mensual_tipo!$G$4:$G$15</definedName>
+    <definedName name="_xlchart.44" hidden="1">Distribución_mensual_tipo!$H$3</definedName>
+    <definedName name="_xlchart.45" hidden="1">Distribución_mensual_tipo!$H$4:$H$15</definedName>
+    <definedName name="_xlchart.46" hidden="1">Distribución_mensual_tipo!$I$3</definedName>
+    <definedName name="_xlchart.47" hidden="1">Distribución_mensual_tipo!$I$4:$I$15</definedName>
+    <definedName name="_xlchart.48" hidden="1">Distribución_mensual_tipo!$J$3</definedName>
+    <definedName name="_xlchart.49" hidden="1">Distribución_mensual_tipo!$J$4:$J$15</definedName>
+    <definedName name="_xlchart.5" hidden="1">Distribución_mensual_tipo!$D$3</definedName>
+    <definedName name="_xlchart.50" hidden="1">Distribución_mensual_tipo!$K$3</definedName>
+    <definedName name="_xlchart.51" hidden="1">Distribución_mensual_tipo!$K$4:$K$15</definedName>
+    <definedName name="_xlchart.52" hidden="1">Distribución_mensual_tipo!$L$3</definedName>
+    <definedName name="_xlchart.53" hidden="1">Distribución_mensual_tipo!$L$4:$L$15</definedName>
+    <definedName name="_xlchart.54" hidden="1">Distribución_mensual_tipo!$M$3</definedName>
+    <definedName name="_xlchart.55" hidden="1">Distribución_mensual_tipo!$M$4:$M$15</definedName>
+    <definedName name="_xlchart.56" hidden="1">Distribución_mensual_tipo!$N$3</definedName>
+    <definedName name="_xlchart.57" hidden="1">Distribución_mensual_tipo!$N$4:$N$15</definedName>
+    <definedName name="_xlchart.58" hidden="1">Distribución_mensual_tipo!$O$3</definedName>
+    <definedName name="_xlchart.59" hidden="1">Distribución_mensual_tipo!$O$4:$O$15</definedName>
+    <definedName name="_xlchart.6" hidden="1">Distribución_mensual_tipo!$D$4:$D$15</definedName>
+    <definedName name="_xlchart.60" hidden="1">Distribución_mensual_tipo!$P$3</definedName>
+    <definedName name="_xlchart.61" hidden="1">Distribución_mensual_tipo!$P$4:$P$15</definedName>
+    <definedName name="_xlchart.62" hidden="1">Distribución_mensual_tipo!$A$4:$A$15</definedName>
+    <definedName name="_xlchart.63" hidden="1">Distribución_mensual_tipo!$B$3</definedName>
+    <definedName name="_xlchart.64" hidden="1">Distribución_mensual_tipo!$B$4:$B$15</definedName>
+    <definedName name="_xlchart.65" hidden="1">Distribución_mensual_tipo!$C$3</definedName>
+    <definedName name="_xlchart.66" hidden="1">Distribución_mensual_tipo!$C$4:$C$15</definedName>
+    <definedName name="_xlchart.67" hidden="1">Distribución_mensual_tipo!$D$3</definedName>
+    <definedName name="_xlchart.68" hidden="1">Distribución_mensual_tipo!$D$4:$D$15</definedName>
+    <definedName name="_xlchart.69" hidden="1">Distribución_mensual_tipo!$E$3</definedName>
+    <definedName name="_xlchart.7" hidden="1">Distribución_mensual_tipo!$E$3</definedName>
+    <definedName name="_xlchart.70" hidden="1">Distribución_mensual_tipo!$E$4:$E$15</definedName>
+    <definedName name="_xlchart.71" hidden="1">Distribución_mensual_tipo!$F$3</definedName>
+    <definedName name="_xlchart.72" hidden="1">Distribución_mensual_tipo!$F$4:$F$15</definedName>
+    <definedName name="_xlchart.73" hidden="1">Distribución_mensual_tipo!$G$3</definedName>
+    <definedName name="_xlchart.74" hidden="1">Distribución_mensual_tipo!$G$4:$G$15</definedName>
+    <definedName name="_xlchart.75" hidden="1">Distribución_mensual_tipo!$H$3</definedName>
+    <definedName name="_xlchart.76" hidden="1">Distribución_mensual_tipo!$H$4:$H$15</definedName>
+    <definedName name="_xlchart.77" hidden="1">Distribución_mensual_tipo!$I$3</definedName>
+    <definedName name="_xlchart.78" hidden="1">Distribución_mensual_tipo!$I$4:$I$15</definedName>
+    <definedName name="_xlchart.79" hidden="1">Distribución_mensual_tipo!$J$3</definedName>
+    <definedName name="_xlchart.8" hidden="1">Distribución_mensual_tipo!$E$4:$E$15</definedName>
+    <definedName name="_xlchart.80" hidden="1">Distribución_mensual_tipo!$J$4:$J$15</definedName>
+    <definedName name="_xlchart.81" hidden="1">Distribución_mensual_tipo!$K$3</definedName>
+    <definedName name="_xlchart.82" hidden="1">Distribución_mensual_tipo!$K$4:$K$15</definedName>
+    <definedName name="_xlchart.83" hidden="1">Distribución_mensual_tipo!$L$3</definedName>
+    <definedName name="_xlchart.84" hidden="1">Distribución_mensual_tipo!$L$4:$L$15</definedName>
+    <definedName name="_xlchart.85" hidden="1">Distribución_mensual_tipo!$M$3</definedName>
+    <definedName name="_xlchart.86" hidden="1">Distribución_mensual_tipo!$M$4:$M$15</definedName>
+    <definedName name="_xlchart.87" hidden="1">Distribución_mensual_tipo!$N$3</definedName>
+    <definedName name="_xlchart.88" hidden="1">Distribución_mensual_tipo!$N$4:$N$15</definedName>
+    <definedName name="_xlchart.89" hidden="1">Distribución_mensual_tipo!$O$3</definedName>
+    <definedName name="_xlchart.9" hidden="1">Distribución_mensual_tipo!$F$3</definedName>
+    <definedName name="_xlchart.90" hidden="1">Distribución_mensual_tipo!$O$4:$O$15</definedName>
+    <definedName name="_xlchart.91" hidden="1">Distribución_mensual_tipo!$P$3</definedName>
+    <definedName name="_xlchart.92" hidden="1">Distribución_mensual_tipo!$P$4:$P$15</definedName>
+    <definedName name="_xlchart.93" hidden="1">Distribución_mensual_tipo!$A$4:$A$15</definedName>
+    <definedName name="_xlchart.94" hidden="1">Distribución_mensual_tipo!$B$3</definedName>
+    <definedName name="_xlchart.95" hidden="1">Distribución_mensual_tipo!$B$4:$B$15</definedName>
+    <definedName name="_xlchart.96" hidden="1">Distribución_mensual_tipo!$C$3</definedName>
+    <definedName name="_xlchart.97" hidden="1">Distribución_mensual_tipo!$C$4:$C$15</definedName>
+    <definedName name="_xlchart.98" hidden="1">Distribución_mensual_tipo!$D$3</definedName>
+    <definedName name="_xlchart.99" hidden="1">Distribución_mensual_tipo!$D$4:$D$15</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="190">
   <si>
     <t>total</t>
   </si>
@@ -488,12 +616,117 @@
   </si>
   <si>
     <t>diciembre/2021</t>
+  </si>
+  <si>
+    <t>Delito</t>
+  </si>
+  <si>
+    <t>Amenazas verbales</t>
+  </si>
+  <si>
+    <t>Extorsión</t>
+  </si>
+  <si>
+    <t>Fraude al consumidor</t>
+  </si>
+  <si>
+    <t>Fraude bancario</t>
+  </si>
+  <si>
+    <t>Hostigamiento</t>
+  </si>
+  <si>
+    <t>Lesiones físicas</t>
+  </si>
+  <si>
+    <t>Otro tipo de robo</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Robo en casa</t>
+  </si>
+  <si>
+    <t>Robo en la calle</t>
+  </si>
+  <si>
+    <t>Robo parcial de vehículo</t>
+  </si>
+  <si>
+    <t>Robo total de vehículo</t>
+  </si>
+  <si>
+    <t>Secuestro</t>
+  </si>
+  <si>
+    <t>Vandalismo</t>
+  </si>
+  <si>
+    <t>Violación</t>
+  </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Distribución mensual de delitos por tipo de delito en 2021</t>
+  </si>
+  <si>
+    <t>Distribución porcentual de delitos por tipo de delito en 2021</t>
+  </si>
+  <si>
+    <t>Delitos por Entidad, 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="#\ ###\ ###"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -630,7 +863,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -810,8 +1043,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -926,8 +1165,142 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -970,13 +1343,78 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="12" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="15" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="16" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1012,6 +1450,7 @@
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Porcentaje" xfId="42" builtinId="5"/>
     <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -2282,284 +2721,1214 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="27.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="5"/>
+    <col min="3" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B4" s="27">
         <v>324807</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B5" s="28">
         <v>914118</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B6" s="28">
         <v>135357</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B7" s="28">
         <v>128811</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="28">
         <v>595754</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B9" s="28">
         <v>146845</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B10" s="28">
         <v>604084</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B11" s="28">
         <v>728818</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B12" s="28">
         <v>3592786</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B13" s="28">
         <v>238816</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B14" s="28">
         <v>1339765</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B15" s="28">
         <v>636267</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B16" s="28">
         <v>441821</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B17" s="28">
         <v>2062602</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B18" s="28">
         <v>6008857</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B19" s="28">
         <v>643936</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B20" s="28">
         <v>498380</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B21" s="28">
         <v>199506</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B22" s="28">
         <v>1587585</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B23" s="28">
         <v>551903</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B24" s="28">
         <v>1839344</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B25" s="28">
         <v>598253</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B26" s="28">
         <v>443849</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B27" s="28">
         <v>612458</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B28" s="28">
         <v>654457</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B29" s="28">
         <v>664610</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B30" s="28">
         <v>599407</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B31" s="28">
         <v>534026</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B32" s="28">
         <v>291848</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B33" s="28">
         <v>1177195</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B34" s="28">
         <v>422803</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B35" s="29">
         <v>268383</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="19">
+        <v>2537578</v>
+      </c>
+      <c r="C4" s="3">
+        <v>8.6056200652948944E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="19">
+        <v>4779651</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.16209101966799369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="19">
+        <v>2181999</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7.3997545599990999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="19">
+        <v>3111673</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.10552533008024328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="19">
+        <v>1962864</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6.6566079245032064E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="19">
+        <v>990878</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3.3603379281579818E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="19">
+        <v>1249948</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4.2389150557638908E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="B11" s="19">
+        <v>73970</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2.5085247280275261E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B12" s="19">
+        <v>1655070</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5.6127944053217756E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="19">
+        <v>5983589</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.20291984546239686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="19">
+        <v>2501820</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8.4843549210136884E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="19">
+        <v>464304</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.5745816754388162E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="19">
+        <v>48981</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.6610794876776565E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="19">
+        <v>1839032</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6.2366597913125828E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="20">
+        <v>106094</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3.5979373056016267E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="21">
+        <f>SUM(B4:B18)</f>
+        <v>29487451</v>
+      </c>
+      <c r="C19" s="11">
+        <f>SUM(C4:C18)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="11.5546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="23">
+        <v>178671</v>
+      </c>
+      <c r="C4" s="19">
+        <v>245056</v>
+      </c>
+      <c r="D4" s="19">
+        <v>131561</v>
+      </c>
+      <c r="E4" s="19">
+        <v>169448</v>
+      </c>
+      <c r="F4" s="19">
+        <v>99142</v>
+      </c>
+      <c r="G4" s="19">
+        <v>61617</v>
+      </c>
+      <c r="H4" s="19">
+        <v>59537</v>
+      </c>
+      <c r="I4" s="19">
+        <v>5016</v>
+      </c>
+      <c r="J4" s="19">
+        <v>95366</v>
+      </c>
+      <c r="K4" s="19">
+        <v>385913</v>
+      </c>
+      <c r="L4" s="19">
+        <v>146212</v>
+      </c>
+      <c r="M4" s="19">
+        <v>45717</v>
+      </c>
+      <c r="N4" s="19">
+        <v>7445</v>
+      </c>
+      <c r="O4" s="19">
+        <v>160971</v>
+      </c>
+      <c r="P4" s="24">
+        <v>5696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="23">
+        <v>160056</v>
+      </c>
+      <c r="C5" s="19">
+        <v>334962</v>
+      </c>
+      <c r="D5" s="19">
+        <v>186344</v>
+      </c>
+      <c r="E5" s="19">
+        <v>237756</v>
+      </c>
+      <c r="F5" s="19">
+        <v>120184</v>
+      </c>
+      <c r="G5" s="19">
+        <v>63111</v>
+      </c>
+      <c r="H5" s="19">
+        <v>73489</v>
+      </c>
+      <c r="I5" s="19">
+        <v>5936</v>
+      </c>
+      <c r="J5" s="19">
+        <v>122911</v>
+      </c>
+      <c r="K5" s="19">
+        <v>496773</v>
+      </c>
+      <c r="L5" s="19">
+        <v>232961</v>
+      </c>
+      <c r="M5" s="19">
+        <v>49316</v>
+      </c>
+      <c r="N5" s="19">
+        <v>2612</v>
+      </c>
+      <c r="O5" s="19">
+        <v>178526</v>
+      </c>
+      <c r="P5" s="24">
+        <v>16063</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="23">
+        <v>202852</v>
+      </c>
+      <c r="C6" s="19">
+        <v>390036</v>
+      </c>
+      <c r="D6" s="19">
+        <v>172387</v>
+      </c>
+      <c r="E6" s="19">
+        <v>251596</v>
+      </c>
+      <c r="F6" s="19">
+        <v>149158</v>
+      </c>
+      <c r="G6" s="19">
+        <v>102403</v>
+      </c>
+      <c r="H6" s="19">
+        <v>84636</v>
+      </c>
+      <c r="I6" s="19">
+        <v>11435</v>
+      </c>
+      <c r="J6" s="19">
+        <v>137734</v>
+      </c>
+      <c r="K6" s="19">
+        <v>530239</v>
+      </c>
+      <c r="L6" s="19">
+        <v>252680</v>
+      </c>
+      <c r="M6" s="19">
+        <v>49108</v>
+      </c>
+      <c r="N6" s="19">
+        <v>4972</v>
+      </c>
+      <c r="O6" s="19">
+        <v>152302</v>
+      </c>
+      <c r="P6" s="24">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="23">
+        <v>156550</v>
+      </c>
+      <c r="C7" s="19">
+        <v>241195</v>
+      </c>
+      <c r="D7" s="19">
+        <v>154249</v>
+      </c>
+      <c r="E7" s="19">
+        <v>195908</v>
+      </c>
+      <c r="F7" s="19">
+        <v>120203</v>
+      </c>
+      <c r="G7" s="19">
+        <v>44101</v>
+      </c>
+      <c r="H7" s="19">
+        <v>56439</v>
+      </c>
+      <c r="I7" s="19">
+        <v>3062</v>
+      </c>
+      <c r="J7" s="19">
+        <v>95343</v>
+      </c>
+      <c r="K7" s="19">
+        <v>302280</v>
+      </c>
+      <c r="L7" s="19">
+        <v>177844</v>
+      </c>
+      <c r="M7" s="19">
+        <v>35781</v>
+      </c>
+      <c r="N7" s="19">
+        <v>2289</v>
+      </c>
+      <c r="O7" s="19">
+        <v>106232</v>
+      </c>
+      <c r="P7" s="24">
+        <v>4025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="23">
+        <v>159109</v>
+      </c>
+      <c r="C8" s="19">
+        <v>365770</v>
+      </c>
+      <c r="D8" s="19">
+        <v>159940</v>
+      </c>
+      <c r="E8" s="19">
+        <v>249272</v>
+      </c>
+      <c r="F8" s="19">
+        <v>156413</v>
+      </c>
+      <c r="G8" s="19">
+        <v>76555</v>
+      </c>
+      <c r="H8" s="19">
+        <v>100510</v>
+      </c>
+      <c r="I8" s="19">
+        <v>7857</v>
+      </c>
+      <c r="J8" s="19">
+        <v>134140</v>
+      </c>
+      <c r="K8" s="19">
+        <v>450738</v>
+      </c>
+      <c r="L8" s="19">
+        <v>176806</v>
+      </c>
+      <c r="M8" s="19">
+        <v>36117</v>
+      </c>
+      <c r="N8" s="19">
+        <v>7529</v>
+      </c>
+      <c r="O8" s="19">
+        <v>150096</v>
+      </c>
+      <c r="P8" s="24">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="23">
+        <v>235196</v>
+      </c>
+      <c r="C9" s="19">
+        <v>521303</v>
+      </c>
+      <c r="D9" s="19">
+        <v>170948</v>
+      </c>
+      <c r="E9" s="19">
+        <v>267110</v>
+      </c>
+      <c r="F9" s="19">
+        <v>150724</v>
+      </c>
+      <c r="G9" s="19">
+        <v>108379</v>
+      </c>
+      <c r="H9" s="19">
+        <v>145827</v>
+      </c>
+      <c r="I9" s="19">
+        <v>4421</v>
+      </c>
+      <c r="J9" s="19">
+        <v>164449</v>
+      </c>
+      <c r="K9" s="19">
+        <v>631899</v>
+      </c>
+      <c r="L9" s="19">
+        <v>270481</v>
+      </c>
+      <c r="M9" s="19">
+        <v>39974</v>
+      </c>
+      <c r="N9" s="19">
+        <v>4253</v>
+      </c>
+      <c r="O9" s="19">
+        <v>184395</v>
+      </c>
+      <c r="P9" s="24">
+        <v>7804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="23">
+        <v>150653</v>
+      </c>
+      <c r="C10" s="19">
+        <v>443513</v>
+      </c>
+      <c r="D10" s="19">
+        <v>142321</v>
+      </c>
+      <c r="E10" s="19">
+        <v>234702</v>
+      </c>
+      <c r="F10" s="19">
+        <v>128554</v>
+      </c>
+      <c r="G10" s="19">
+        <v>26504</v>
+      </c>
+      <c r="H10" s="19">
+        <v>100902</v>
+      </c>
+      <c r="I10" s="19">
+        <v>2858</v>
+      </c>
+      <c r="J10" s="19">
+        <v>129360</v>
+      </c>
+      <c r="K10" s="19">
+        <v>371755</v>
+      </c>
+      <c r="L10" s="19">
+        <v>175439</v>
+      </c>
+      <c r="M10" s="19">
+        <v>28138</v>
+      </c>
+      <c r="N10" s="19">
+        <v>2419</v>
+      </c>
+      <c r="O10" s="19">
+        <v>144882</v>
+      </c>
+      <c r="P10" s="24">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="23">
+        <v>211228</v>
+      </c>
+      <c r="C11" s="19">
+        <v>388866</v>
+      </c>
+      <c r="D11" s="19">
+        <v>199278</v>
+      </c>
+      <c r="E11" s="19">
+        <v>224177</v>
+      </c>
+      <c r="F11" s="19">
+        <v>131728</v>
+      </c>
+      <c r="G11" s="19">
+        <v>60277</v>
+      </c>
+      <c r="H11" s="19">
+        <v>97113</v>
+      </c>
+      <c r="I11" s="19">
+        <v>2977</v>
+      </c>
+      <c r="J11" s="19">
+        <v>113832</v>
+      </c>
+      <c r="K11" s="19">
+        <v>440821</v>
+      </c>
+      <c r="L11" s="19">
+        <v>204449</v>
+      </c>
+      <c r="M11" s="19">
+        <v>32946</v>
+      </c>
+      <c r="N11" s="19">
+        <v>348</v>
+      </c>
+      <c r="O11" s="19">
+        <v>121882</v>
+      </c>
+      <c r="P11" s="24">
+        <v>5591</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="23">
+        <v>155087</v>
+      </c>
+      <c r="C12" s="19">
+        <v>329111</v>
+      </c>
+      <c r="D12" s="19">
+        <v>139422</v>
+      </c>
+      <c r="E12" s="19">
+        <v>262613</v>
+      </c>
+      <c r="F12" s="19">
+        <v>156085</v>
+      </c>
+      <c r="G12" s="19">
+        <v>99165</v>
+      </c>
+      <c r="H12" s="19">
+        <v>87693</v>
+      </c>
+      <c r="I12" s="19">
+        <v>3274</v>
+      </c>
+      <c r="J12" s="19">
+        <v>117097</v>
+      </c>
+      <c r="K12" s="19">
+        <v>486439</v>
+      </c>
+      <c r="L12" s="19">
+        <v>202737</v>
+      </c>
+      <c r="M12" s="19">
+        <v>31759</v>
+      </c>
+      <c r="N12" s="19">
+        <v>4259</v>
+      </c>
+      <c r="O12" s="19">
+        <v>134708</v>
+      </c>
+      <c r="P12" s="24">
+        <v>7471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="23">
+        <v>224095</v>
+      </c>
+      <c r="C13" s="19">
+        <v>364081</v>
+      </c>
+      <c r="D13" s="19">
+        <v>191429</v>
+      </c>
+      <c r="E13" s="19">
+        <v>270509</v>
+      </c>
+      <c r="F13" s="19">
+        <v>220555</v>
+      </c>
+      <c r="G13" s="19">
+        <v>95847</v>
+      </c>
+      <c r="H13" s="19">
+        <v>116969</v>
+      </c>
+      <c r="I13" s="19">
+        <v>4306</v>
+      </c>
+      <c r="J13" s="19">
+        <v>147648</v>
+      </c>
+      <c r="K13" s="19">
+        <v>482342</v>
+      </c>
+      <c r="L13" s="19">
+        <v>199291</v>
+      </c>
+      <c r="M13" s="19">
+        <v>38394</v>
+      </c>
+      <c r="N13" s="19">
+        <v>3067</v>
+      </c>
+      <c r="O13" s="19">
+        <v>135052</v>
+      </c>
+      <c r="P13" s="24">
+        <v>15406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="23">
+        <v>291163</v>
+      </c>
+      <c r="C14" s="19">
+        <v>575264</v>
+      </c>
+      <c r="D14" s="19">
+        <v>260643</v>
+      </c>
+      <c r="E14" s="19">
+        <v>333921</v>
+      </c>
+      <c r="F14" s="19">
+        <v>210999</v>
+      </c>
+      <c r="G14" s="19">
+        <v>120219</v>
+      </c>
+      <c r="H14" s="19">
+        <v>151974</v>
+      </c>
+      <c r="I14" s="19">
+        <v>7882</v>
+      </c>
+      <c r="J14" s="19">
+        <v>186765</v>
+      </c>
+      <c r="K14" s="19">
+        <v>710690</v>
+      </c>
+      <c r="L14" s="19">
+        <v>234481</v>
+      </c>
+      <c r="M14" s="19">
+        <v>41309</v>
+      </c>
+      <c r="N14" s="19">
+        <v>6383</v>
+      </c>
+      <c r="O14" s="19">
+        <v>186057</v>
+      </c>
+      <c r="P14" s="24">
+        <v>18740</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="25">
+        <v>412918</v>
+      </c>
+      <c r="C15" s="20">
+        <v>580494</v>
+      </c>
+      <c r="D15" s="20">
+        <v>273477</v>
+      </c>
+      <c r="E15" s="20">
+        <v>414661</v>
+      </c>
+      <c r="F15" s="20">
+        <v>319119</v>
+      </c>
+      <c r="G15" s="20">
+        <v>132700</v>
+      </c>
+      <c r="H15" s="20">
+        <v>174859</v>
+      </c>
+      <c r="I15" s="20">
+        <v>14946</v>
+      </c>
+      <c r="J15" s="20">
+        <v>210425</v>
+      </c>
+      <c r="K15" s="20">
+        <v>693700</v>
+      </c>
+      <c r="L15" s="20">
+        <v>228439</v>
+      </c>
+      <c r="M15" s="20">
+        <v>35745</v>
+      </c>
+      <c r="N15" s="20">
+        <v>3405</v>
+      </c>
+      <c r="O15" s="20">
+        <v>183929</v>
+      </c>
+      <c r="P15" s="26">
+        <v>17971</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>